--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_end.xlsx
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Amiya, back off. I'm going to use "that"!
+    <t xml:space="preserve">[name="Blaze"]  Amiya, back off. I'm going to use 'that'!
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Take this bit of my blood as a farewell gift, Reunion's "Phantom Crossbowmen!"
+    <t xml:space="preserve">[name="Blaze"]  Take this bit of my blood as a farewell gift, Reunion's 'Phantom Crossbowmen!'
 </t>
   </si>
   <si>
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  "Crimson overflowing—“
+    <t xml:space="preserve">[name="Ch'en"]  'Crimson overflowing—'
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  I was expecting you to say something like "I didn't need Rhodes Island's help anyway," or "I'd rather die than work with them."
+    <t xml:space="preserve">[name="Blaze"]  I was expecting you to say something like 'I didn't need Rhodes Island's help anyway,' or 'I'd rather die than work with them.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_end.xlsx
@@ -1464,7 +1464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Sure thing. Just me and that Ch’en lady should suffice!
+    <t xml:space="preserve">[name="Blaze"]  Sure thing. Just me and that Ch'en lady should suffice!
 </t>
   </si>
   <si>
@@ -1664,7 +1664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Well… shoot, Madam. Looks like this building's going to need some serious renovating.
+    <t xml:space="preserve">[name="Blaze"]  Well... shoot, Madam. Looks like this building's going to need some serious renovating.
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  —with Rhodes Island's assistance, we’ve taken back the L.G.D. Headquarters. Their commander will spread word of their defeat through the ranks.
+    <t xml:space="preserve">[name="Ch'en"]  —with Rhodes Island's assistance, we've taken back the L.G.D. Headquarters. Their commander will spread word of their defeat through the ranks.
 </t>
   </si>
   <si>
